--- a/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k3_ward.xlsx
+++ b/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k3_ward.xlsx
@@ -413,19 +413,19 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E2" t="n">
-        <v>1.159</v>
+        <v>1.158</v>
       </c>
       <c r="F2" t="n">
-        <v>1.114</v>
+        <v>1.119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.169</v>
+        <v>0.187</v>
       </c>
       <c r="H2" t="n">
-        <v>1.611</v>
+        <v>1.645</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -442,19 +442,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E3" t="n">
-        <v>1.091</v>
+        <v>1.176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.965</v>
+        <v>1.151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.288</v>
+        <v>0.249</v>
       </c>
       <c r="H3" t="n">
-        <v>1.807</v>
+        <v>1.848</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
@@ -471,19 +471,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E4" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F4" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="H4" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
